--- a/WGM/WGM Scorecard.xlsx
+++ b/WGM/WGM Scorecard.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wills\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wills\Documents\GitHub\wiigolfmasters\WGM\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DFCB91-ACE4-4831-A3E4-BABE1E584CBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Player</t>
   </si>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -110,7 +111,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -222,11 +223,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF076652"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF076652"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF076652"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF076652"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF076652"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF076652"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF076652"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF076652"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF076652"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF076652"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -254,24 +296,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,11 +639,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M27"/>
+      <selection sqref="A1:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,7 +654,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -646,7 +695,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
+      <c r="A2" s="15"/>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
@@ -683,67 +732,67 @@
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="17"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="18"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="25"/>
     </row>
     <row r="5" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="17"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="27"/>
     </row>
     <row r="6" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="18"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="19"/>
     </row>
     <row r="7" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -784,7 +833,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="3" t="s">
         <v>2</v>
       </c>
@@ -823,384 +872,103 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="17"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="18"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="25"/>
     </row>
     <row r="11" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="17"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="26"/>
     </row>
     <row r="12" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="20"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="22"/>
     </row>
     <row r="13" spans="1:13" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="11"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="11"/>
+      <c r="K13" s="16"/>
       <c r="L13" s="9"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="15" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="4">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4">
-        <v>2</v>
-      </c>
-      <c r="E15" s="4">
-        <v>3</v>
-      </c>
-      <c r="F15" s="4">
-        <v>4</v>
-      </c>
-      <c r="G15" s="4">
-        <v>5</v>
-      </c>
-      <c r="H15" s="4">
-        <v>6</v>
-      </c>
-      <c r="I15" s="4">
-        <v>7</v>
-      </c>
-      <c r="J15" s="4">
-        <v>8</v>
-      </c>
-      <c r="K15" s="4">
-        <v>9</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="3">
-        <v>4</v>
-      </c>
-      <c r="D16" s="3">
-        <v>3</v>
-      </c>
-      <c r="E16" s="3">
-        <v>5</v>
-      </c>
-      <c r="F16" s="3">
-        <v>3</v>
-      </c>
-      <c r="G16" s="3">
-        <v>5</v>
-      </c>
-      <c r="H16" s="3">
-        <v>4</v>
-      </c>
-      <c r="I16" s="3">
-        <v>4</v>
-      </c>
-      <c r="J16" s="3">
-        <v>3</v>
-      </c>
-      <c r="K16" s="3">
-        <v>5</v>
-      </c>
-      <c r="L16" s="3">
-        <v>36</v>
-      </c>
-      <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="17"/>
-    </row>
-    <row r="18" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="18"/>
-    </row>
-    <row r="19" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="17"/>
-    </row>
-    <row r="20" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="18"/>
-    </row>
-    <row r="21" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2">
-        <v>10</v>
-      </c>
-      <c r="D21" s="2">
-        <v>11</v>
-      </c>
-      <c r="E21" s="2">
-        <v>12</v>
-      </c>
-      <c r="F21" s="2">
-        <v>13</v>
-      </c>
-      <c r="G21" s="2">
-        <v>14</v>
-      </c>
-      <c r="H21" s="2">
-        <v>15</v>
-      </c>
-      <c r="I21" s="2">
-        <v>16</v>
-      </c>
-      <c r="J21" s="2">
-        <v>17</v>
-      </c>
-      <c r="K21" s="2">
-        <v>18</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="3">
-        <v>4</v>
-      </c>
-      <c r="D22" s="3">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3">
-        <v>3</v>
-      </c>
-      <c r="K22" s="3">
-        <v>5</v>
-      </c>
-      <c r="L22" s="3">
-        <v>36</v>
-      </c>
-      <c r="M22" s="8">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="17"/>
-    </row>
-    <row r="24" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="18"/>
-    </row>
-    <row r="25" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="17"/>
-    </row>
-    <row r="26" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="20"/>
-    </row>
-    <row r="27" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K27" s="11"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="10"/>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="8">
